--- a/metadata/meta_factorlevels.xlsx
+++ b/metadata/meta_factorlevels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -44,6 +44,33 @@
     <t xml:space="preserve">New SHF</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_eforg</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_sex</t>
   </si>
   <si>
@@ -53,15 +80,6 @@
     <t xml:space="preserve">Male</t>
   </si>
   <si>
-    <t xml:space="preserve">shf_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index</t>
-  </si>
-  <si>
     <t xml:space="preserve">shf_civilstatus</t>
   </si>
   <si>
@@ -146,21 +164,6 @@
     <t xml:space="preserve">IV</t>
   </si>
   <si>
-    <t xml:space="preserve">shf_ef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;30</t>
-  </si>
-  <si>
     <t xml:space="preserve">shf_lbbb</t>
   </si>
   <si>
@@ -408,6 +411,15 @@
   </si>
   <si>
     <t xml:space="preserve">shf_diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_diabetestype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type II</t>
   </si>
   <si>
     <t xml:space="preserve">shf_hypertension</t>
@@ -1100,409 +1112,409 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>32</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>39</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
         <v>44</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B47" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48">
@@ -1510,10 +1522,10 @@
         <v>58</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
@@ -1521,109 +1533,109 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59">
@@ -1631,10 +1643,10 @@
         <v>69</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
@@ -1642,76 +1654,76 @@
         <v>69</v>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
@@ -1719,10 +1731,10 @@
         <v>77</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68">
@@ -1730,252 +1742,252 @@
         <v>77</v>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B71" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B81" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B82" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B83" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B84" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91">
@@ -1983,10 +1995,10 @@
         <v>100</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92">
@@ -1994,274 +2006,274 @@
         <v>100</v>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B94" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117">
@@ -2269,10 +2281,10 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118">
@@ -2280,183 +2292,183 @@
         <v>121</v>
       </c>
       <c r="B118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B119" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
         <v>126</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4</v>
-      </c>
-      <c r="C123" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B124" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
         <v>134</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1</v>
-      </c>
-      <c r="C132" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
         <v>135</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0</v>
-      </c>
-      <c r="C133" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="s">
         <v>51</v>
@@ -2467,18 +2479,18 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="s">
         <v>51</v>
@@ -2489,18 +2501,18 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="s">
         <v>51</v>
@@ -2511,18 +2523,18 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="s">
         <v>51</v>
@@ -2536,106 +2548,106 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>143</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
         <v>144</v>
-      </c>
-      <c r="B148" t="n">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151">
@@ -2643,227 +2655,227 @@
         <v>147</v>
       </c>
       <c r="B151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B157" t="n">
         <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B162" t="n">
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>165</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="s">
         <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
         <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0</v>
-      </c>
-      <c r="C170" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="s">
         <v>51</v>
@@ -2874,18 +2886,18 @@
         <v>169</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="s">
         <v>51</v>
@@ -2896,18 +2908,18 @@
         <v>170</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="s">
         <v>51</v>
@@ -2918,18 +2930,18 @@
         <v>171</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="s">
         <v>51</v>
@@ -2940,18 +2952,18 @@
         <v>172</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="s">
         <v>51</v>
@@ -2962,18 +2974,18 @@
         <v>173</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="s">
         <v>51</v>
@@ -2984,18 +2996,18 @@
         <v>174</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="s">
         <v>51</v>
@@ -3006,18 +3018,18 @@
         <v>175</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="s">
         <v>51</v>
@@ -3028,18 +3040,18 @@
         <v>176</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="s">
         <v>51</v>
@@ -3050,18 +3062,18 @@
         <v>177</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="s">
         <v>51</v>
@@ -3072,18 +3084,18 @@
         <v>178</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="s">
         <v>51</v>
@@ -3094,18 +3106,18 @@
         <v>179</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="s">
         <v>51</v>
@@ -3116,18 +3128,18 @@
         <v>180</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="s">
         <v>51</v>
@@ -3138,18 +3150,18 @@
         <v>181</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="s">
         <v>51</v>
@@ -3160,18 +3172,18 @@
         <v>182</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="s">
         <v>51</v>
@@ -3182,18 +3194,18 @@
         <v>183</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="s">
         <v>51</v>
@@ -3204,18 +3216,18 @@
         <v>184</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="s">
         <v>51</v>
@@ -3226,18 +3238,18 @@
         <v>185</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="s">
         <v>51</v>
@@ -3248,18 +3260,18 @@
         <v>186</v>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="s">
         <v>51</v>
@@ -3270,18 +3282,18 @@
         <v>187</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="s">
         <v>51</v>
@@ -3292,18 +3304,18 @@
         <v>188</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="s">
         <v>51</v>
@@ -3314,18 +3326,18 @@
         <v>189</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="s">
         <v>51</v>
@@ -3336,18 +3348,18 @@
         <v>190</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="s">
         <v>51</v>
@@ -3358,18 +3370,18 @@
         <v>191</v>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="s">
         <v>51</v>
@@ -3380,18 +3392,18 @@
         <v>192</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="s">
         <v>51</v>
@@ -3402,18 +3414,18 @@
         <v>193</v>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="s">
         <v>51</v>
@@ -3424,18 +3436,18 @@
         <v>194</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="s">
         <v>51</v>
@@ -3446,18 +3458,18 @@
         <v>195</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="s">
         <v>51</v>
@@ -3468,18 +3480,18 @@
         <v>196</v>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="s">
         <v>51</v>
@@ -3490,18 +3502,18 @@
         <v>197</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="s">
         <v>51</v>
@@ -3512,18 +3524,18 @@
         <v>198</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="s">
         <v>51</v>
@@ -3534,18 +3546,18 @@
         <v>199</v>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="s">
         <v>51</v>
@@ -3556,18 +3568,18 @@
         <v>200</v>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="s">
         <v>51</v>
@@ -3578,18 +3590,18 @@
         <v>201</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="s">
         <v>51</v>
@@ -3600,18 +3612,18 @@
         <v>202</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="s">
         <v>51</v>
@@ -3622,18 +3634,18 @@
         <v>203</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="s">
         <v>51</v>
@@ -3644,18 +3656,18 @@
         <v>204</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="s">
         <v>51</v>
@@ -3666,18 +3678,18 @@
         <v>205</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="s">
         <v>51</v>
@@ -3688,18 +3700,18 @@
         <v>206</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="s">
         <v>51</v>
@@ -3710,18 +3722,18 @@
         <v>207</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="s">
         <v>51</v>
@@ -3732,18 +3744,18 @@
         <v>208</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="s">
         <v>51</v>
@@ -3754,18 +3766,18 @@
         <v>209</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="s">
         <v>51</v>
@@ -3776,18 +3788,18 @@
         <v>210</v>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="s">
         <v>51</v>
@@ -3798,18 +3810,18 @@
         <v>211</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="s">
         <v>51</v>
@@ -3820,18 +3832,18 @@
         <v>212</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="s">
         <v>51</v>
@@ -3842,18 +3854,18 @@
         <v>213</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="s">
         <v>51</v>
@@ -3864,21 +3876,98 @@
         <v>214</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>215</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>216</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>216</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>217</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+      <c r="C267" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>217</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>218</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>218</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C270" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/meta_factorlevels.xlsx
+++ b/metadata/meta_factorlevels.xlsx
@@ -311,7 +311,7 @@
     <t xml:space="preserve">98/102</t>
   </si>
   <si>
-    <t xml:space="preserve">shf_ras</t>
+    <t xml:space="preserve">shf_rasarni</t>
   </si>
   <si>
     <t xml:space="preserve">shf_bbl</t>

--- a/metadata/meta_factorlevels.xlsx
+++ b/metadata/meta_factorlevels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -597,9 +597,6 @@
   </si>
   <si>
     <t xml:space="preserve">sos_com_alcohol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sos_com_ra</t>
   </si>
   <si>
     <t xml:space="preserve">sos_com_bleed</t>
@@ -3948,28 +3945,6 @@
         <v>52</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>218</v>
-      </c>
-      <c r="B269" t="n">
-        <v>0</v>
-      </c>
-      <c r="C269" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>218</v>
-      </c>
-      <c r="B270" t="n">
-        <v>1</v>
-      </c>
-      <c r="C270" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/metadata/meta_factorlevels.xlsx
+++ b/metadata/meta_factorlevels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -107,6 +107,15 @@
     <t xml:space="preserve">Out-patient</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_centretype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary care</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_smoking</t>
   </si>
   <si>
@@ -459,12 +468,6 @@
   </si>
   <si>
     <t xml:space="preserve">shf_followuplocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary care</t>
   </si>
   <si>
     <t xml:space="preserve">scb_countryofbirth</t>
@@ -1285,21 +1288,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
@@ -1307,10 +1310,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -1340,54 +1343,54 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
@@ -1395,10 +1398,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>47</v>
@@ -1406,32 +1409,32 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
         <v>51</v>
@@ -1439,10 +1442,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
         <v>52</v>
@@ -1456,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43">
@@ -1467,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
@@ -1519,10 +1522,10 @@
         <v>58</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49">
@@ -1530,637 +1533,637 @@
         <v>58</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B80" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B84" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B86" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B87" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B88" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107">
@@ -2168,10 +2171,10 @@
         <v>116</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108">
@@ -2179,285 +2182,285 @@
         <v>116</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B122" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B123" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B128" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
     </row>
     <row r="134">
@@ -2465,10 +2468,10 @@
         <v>136</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135">
@@ -2476,230 +2479,230 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156">
@@ -2707,10 +2710,10 @@
         <v>151</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
@@ -2718,43 +2721,43 @@
         <v>151</v>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+      <c r="C159" t="s">
         <v>154</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0</v>
-      </c>
-      <c r="C159" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161">
@@ -2762,10 +2765,10 @@
         <v>155</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162">
@@ -2773,120 +2776,120 @@
         <v>155</v>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B164" t="n">
         <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B166" t="n">
         <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
         <v>165</v>
-      </c>
-      <c r="B169" t="n">
-        <v>2</v>
-      </c>
-      <c r="C169" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
+        <v>166</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
         <v>169</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="173">
@@ -2897,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174">
@@ -2908,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175">
@@ -2919,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="176">
@@ -2930,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177">
@@ -2941,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178">
@@ -2952,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179">
@@ -2963,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180">
@@ -2974,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181">
@@ -2985,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="182">
@@ -2996,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183">
@@ -3007,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184">
@@ -3018,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185">
@@ -3029,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186">
@@ -3040,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187">
@@ -3051,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188">
@@ -3062,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189">
@@ -3073,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190">
@@ -3084,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191">
@@ -3095,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192">
@@ -3106,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193">
@@ -3117,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194">
@@ -3128,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195">
@@ -3139,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="196">
@@ -3150,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197">
@@ -3161,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198">
@@ -3172,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199">
@@ -3183,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200">
@@ -3194,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="201">
@@ -3205,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202">
@@ -3216,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="203">
@@ -3227,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="204">
@@ -3238,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="205">
@@ -3249,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="206">
@@ -3260,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="207">
@@ -3271,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="208">
@@ -3282,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="209">
@@ -3293,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="210">
@@ -3304,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211">
@@ -3315,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="212">
@@ -3326,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213">
@@ -3337,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="214">
@@ -3348,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="215">
@@ -3359,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="216">
@@ -3370,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217">
@@ -3381,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="218">
@@ -3392,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="219">
@@ -3403,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="220">
@@ -3414,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="221">
@@ -3425,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="222">
@@ -3436,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="223">
@@ -3447,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="224">
@@ -3458,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="225">
@@ -3469,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="226">
@@ -3480,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="227">
@@ -3491,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="228">
@@ -3502,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="229">
@@ -3513,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="230">
@@ -3524,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="231">
@@ -3535,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="232">
@@ -3546,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="233">
@@ -3557,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="234">
@@ -3568,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="235">
@@ -3579,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="236">
@@ -3590,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="237">
@@ -3601,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="238">
@@ -3612,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="239">
@@ -3623,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="240">
@@ -3634,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="241">
@@ -3645,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="242">
@@ -3656,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243">
@@ -3667,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="244">
@@ -3678,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="245">
@@ -3689,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="246">
@@ -3700,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247">
@@ -3711,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="248">
@@ -3722,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="249">
@@ -3733,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="250">
@@ -3744,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="251">
@@ -3755,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="252">
@@ -3766,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253">
@@ -3777,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="254">
@@ -3788,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255">
@@ -3799,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="256">
@@ -3810,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="257">
@@ -3821,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="258">
@@ -3832,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259">
@@ -3843,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="C259" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="260">
@@ -3854,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="261">
@@ -3865,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="262">
@@ -3876,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263">
@@ -3887,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="264">
@@ -3898,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265">
@@ -3909,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="266">
@@ -3920,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="267">
@@ -3931,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="268">
@@ -3942,7 +3945,29 @@
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>218</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>218</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C270" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/meta_factorlevels.xlsx
+++ b/metadata/meta_factorlevels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -522,6 +522,15 @@
   </si>
   <si>
     <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sos_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HF in-patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other in-patient</t>
   </si>
   <si>
     <t xml:space="preserve">sos_com_hypertension</t>
@@ -2897,10 +2906,10 @@
         <v>170</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174">
@@ -2908,1065 +2917,1098 @@
         <v>170</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>220</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>221</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+      <c r="C272" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>221</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
         <v>55</v>
       </c>
     </row>

--- a/metadata/meta_factorlevels.xlsx
+++ b/metadata/meta_factorlevels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t xml:space="preserve">shf_loopdiuretic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_loopdiureticsub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bumetanid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furosemid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toresamid</t>
   </si>
   <si>
     <t xml:space="preserve">shf_loopdiureticusage</t>
@@ -1550,24 +1562,24 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
         <v>61</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52">
@@ -1575,626 +1587,626 @@
         <v>62</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B84" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B88" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B89" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B90" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109">
@@ -2202,21 +2214,21 @@
         <v>119</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111">
@@ -2224,282 +2236,282 @@
         <v>120</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B130" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="s">
         <v>54</v>
@@ -2507,13 +2519,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138">
@@ -2521,164 +2533,164 @@
         <v>140</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153">
@@ -2686,10 +2698,10 @@
         <v>150</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154">
@@ -2697,70 +2709,70 @@
         <v>150</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B159" t="n">
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B160" t="n">
         <v>3</v>
@@ -2771,24 +2783,24 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163">
@@ -2796,21 +2808,21 @@
         <v>156</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165">
@@ -2821,15 +2833,15 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>161</v>
@@ -2837,21 +2849,21 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>160</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="s">
         <v>162</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" t="s">
         <v>164</v>
@@ -2859,10 +2871,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" t="s">
         <v>165</v>
@@ -2931,29 +2943,29 @@
         <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178">
@@ -2961,1054 +2973,1087 @@
         <v>174</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>224</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>225</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>225</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
         <v>55</v>
       </c>
     </row>
